--- a/SampleApp/模版/03读取excel内容/Sample05.xlsx
+++ b/SampleApp/模版/03读取excel内容/Sample05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>序号</t>
   </si>
@@ -29,6 +29,10 @@
   </si>
   <si>
     <t>事业2部</t>
+  </si>
+  <si>
+    <t>事业3部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -456,7 +460,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:XFD1048576"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -502,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>222</v>
